--- a/jogos_2025-05-21.xlsx
+++ b/jogos_2025-05-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -205,6 +205,9 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
     <t>17:30</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Italy Serie B</t>
+  </si>
+  <si>
     <t>Algeria Ligue 1</t>
   </si>
   <si>
@@ -262,15 +268,15 @@
     <t>Al Kholood</t>
   </si>
   <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
+    <t>Falkenberg</t>
+  </si>
+  <si>
     <t>Västerås SK</t>
   </si>
   <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
-    <t>Falkenberg</t>
-  </si>
-  <si>
     <t>Örgryte</t>
   </si>
   <si>
@@ -280,6 +286,12 @@
     <t>Sportivo Ameliano</t>
   </si>
   <si>
+    <t>Juve Stabia</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
     <t>General Caballero JLM</t>
   </si>
   <si>
@@ -310,15 +322,15 @@
     <t>Al Feiha</t>
   </si>
   <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
     <t>Östersunds FK</t>
   </si>
   <si>
-    <t>Örebro</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
     <t>Sandviken</t>
   </si>
   <si>
@@ -326,6 +338,12 @@
   </si>
   <si>
     <t>Cerro Porteño</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Spezia</t>
   </si>
   <si>
     <t>2 de Mayo</t>
@@ -704,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,16 +906,16 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -912,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>3.23</v>
@@ -924,43 +942,43 @@
         <v>2.02</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB2">
         <v>1.89</v>
@@ -969,70 +987,70 @@
         <v>1.81</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AO2">
         <v>-1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1041,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BD2" s="3">
         <v>45798.29166666666</v>
@@ -1058,16 +1076,16 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1082,127 +1100,127 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1211,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BD3" s="3">
         <v>45798.29166666666</v>
@@ -1228,16 +1246,16 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1252,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1327,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1398,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1422,16 +1440,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L5">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N5">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="O5">
         <v>1.95</v>
@@ -1443,46 +1461,46 @@
         <v>2.05</v>
       </c>
       <c r="R5">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S5">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="T5">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="U5">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="V5">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="W5">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="X5">
         <v>1.04</v>
       </c>
       <c r="Y5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AA5">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AB5">
         <v>1.7</v>
       </c>
       <c r="AC5">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AD5">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AE5">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AF5">
         <v>1.57</v>
@@ -1491,16 +1509,16 @@
         <v>2.3</v>
       </c>
       <c r="AH5">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="AI5">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AJ5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL5">
         <v>1.3</v>
@@ -1509,40 +1527,40 @@
         <v>1.25</v>
       </c>
       <c r="AN5">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AO5">
         <v>-1</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="AS5">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="AT5">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="AU5">
-        <v>2.95</v>
+        <v>3.58</v>
       </c>
       <c r="AV5">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="AW5">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AX5">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AY5">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1568,16 +1586,16 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1667,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1738,16 +1756,16 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1762,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L7">
         <v>1.2</v>
@@ -1774,49 +1792,49 @@
         <v>10.5</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD7">
         <v>1.92</v>
@@ -1825,64 +1843,64 @@
         <v>1.83</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AJ7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO7">
         <v>-1</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -1891,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD7" s="3">
         <v>45798.54861111111</v>
@@ -1908,16 +1926,16 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1932,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L8">
         <v>2.5</v>
@@ -1944,43 +1962,43 @@
         <v>2.5</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AB8">
         <v>1.88</v>
@@ -1989,70 +2007,70 @@
         <v>1.86</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2061,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BD8" s="3">
         <v>45798.55902777778</v>
@@ -2078,16 +2096,16 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2102,127 +2120,127 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L9">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="M9">
-        <v>3.9</v>
+        <v>3.33</v>
       </c>
       <c r="N9">
-        <v>4.75</v>
+        <v>2.84</v>
       </c>
       <c r="O9">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9">
+        <v>2.2</v>
+      </c>
+      <c r="R9">
+        <v>1.36</v>
+      </c>
+      <c r="S9">
         <v>2.9</v>
       </c>
-      <c r="R9">
-        <v>1.3</v>
-      </c>
-      <c r="S9">
-        <v>3.2</v>
-      </c>
       <c r="T9">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="U9">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="V9">
+        <v>6.05</v>
+      </c>
+      <c r="W9">
+        <v>1.06</v>
+      </c>
+      <c r="X9">
+        <v>1.05</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>1.28</v>
+      </c>
+      <c r="AA9">
+        <v>3.8</v>
+      </c>
+      <c r="AB9">
+        <v>1.8</v>
+      </c>
+      <c r="AC9">
+        <v>1.9</v>
+      </c>
+      <c r="AD9">
+        <v>3.1</v>
+      </c>
+      <c r="AE9">
+        <v>1.38</v>
+      </c>
+      <c r="AF9">
+        <v>1.62</v>
+      </c>
+      <c r="AG9">
+        <v>2.1</v>
+      </c>
+      <c r="AH9">
         <v>6</v>
       </c>
-      <c r="W9">
-        <v>1.07</v>
-      </c>
-      <c r="X9">
-        <v>1.04</v>
-      </c>
-      <c r="Y9">
-        <v>11</v>
-      </c>
-      <c r="Z9">
+      <c r="AI9">
+        <v>1.13</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL9">
+        <v>1.38</v>
+      </c>
+      <c r="AM9">
         <v>1.25</v>
       </c>
-      <c r="AA9">
-        <v>4</v>
-      </c>
-      <c r="AB9">
-        <v>1.79</v>
-      </c>
-      <c r="AC9">
-        <v>1.91</v>
-      </c>
-      <c r="AD9">
-        <v>3</v>
-      </c>
-      <c r="AE9">
-        <v>1.4</v>
-      </c>
-      <c r="AF9">
-        <v>1.77</v>
-      </c>
-      <c r="AG9">
-        <v>1.9</v>
-      </c>
-      <c r="AH9">
-        <v>5.75</v>
-      </c>
-      <c r="AI9">
-        <v>1.14</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL9">
-        <v>1.15</v>
-      </c>
-      <c r="AM9">
-        <v>1.18</v>
-      </c>
       <c r="AN9">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AT9">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AU9">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AV9">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AW9">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AX9">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AY9">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2231,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="BC9">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="BD9" s="3">
         <v>45798.58333333334</v>
@@ -2248,16 +2266,16 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2272,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L10">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="M10">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="N10">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="O10">
         <v>1.85</v>
@@ -2290,22 +2308,22 @@
         <v>10</v>
       </c>
       <c r="Q10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R10">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S10">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="T10">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="U10">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V10">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="W10">
         <v>1.06</v>
@@ -2317,22 +2335,22 @@
         <v>10</v>
       </c>
       <c r="Z10">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA10">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AB10">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AC10">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AD10">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF10">
         <v>1.62</v>
@@ -2341,58 +2359,58 @@
         <v>2.1</v>
       </c>
       <c r="AH10">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AI10">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AJ10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL10">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AM10">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AN10">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AO10">
         <v>-1</v>
       </c>
       <c r="AP10">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AR10">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS10">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AT10">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AU10">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AV10">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AW10">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AX10">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AY10">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2404,7 +2422,7 @@
         <v>1.85</v>
       </c>
       <c r="BC10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="BD10" s="3">
         <v>45798.58333333334</v>
@@ -2418,16 +2436,16 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2442,61 +2460,61 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L11">
-        <v>2.17</v>
+        <v>1.53</v>
       </c>
       <c r="M11">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="N11">
-        <v>2.74</v>
+        <v>4.75</v>
       </c>
       <c r="O11">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q11">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="R11">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S11">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="T11">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="U11">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="V11">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="W11">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X11">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z11">
         <v>1.25</v>
       </c>
       <c r="AA11">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB11">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AC11">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="AD11">
         <v>3</v>
@@ -2505,10 +2523,10 @@
         <v>1.4</v>
       </c>
       <c r="AF11">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AG11">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AH11">
         <v>5.75</v>
@@ -2517,19 +2535,19 @@
         <v>1.14</v>
       </c>
       <c r="AJ11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL11">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AM11">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AN11">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AO11">
         <v>-1</v>
@@ -2538,31 +2556,31 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR11">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS11">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AT11">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU11">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AV11">
         <v>2.9</v>
       </c>
       <c r="AW11">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AX11">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AY11">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -2571,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="BC11">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="BD11" s="3">
         <v>45798.58333333334</v>
@@ -2588,16 +2606,16 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2612,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L12">
         <v>2.1</v>
@@ -2687,10 +2705,10 @@
         <v>1.2</v>
       </c>
       <c r="AJ12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL12">
         <v>1.38</v>
@@ -2758,16 +2776,16 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2782,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L13">
         <v>9.5</v>
@@ -2794,49 +2812,49 @@
         <v>1.2</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD13">
         <v>1.7</v>
@@ -2845,64 +2863,64 @@
         <v>2.08</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AJ13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2911,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BD13" s="3">
         <v>45798.625</v>
@@ -2928,16 +2946,16 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2952,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="O14">
         <v>2.34</v>
@@ -2973,106 +2991,106 @@
         <v>1.77</v>
       </c>
       <c r="R14">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="S14">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="T14">
-        <v>3.02</v>
+        <v>3.45</v>
       </c>
       <c r="U14">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V14">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="W14">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="X14">
+        <v>1.07</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>1.42</v>
+      </c>
+      <c r="AA14">
+        <v>2.66</v>
+      </c>
+      <c r="AB14">
+        <v>2.22</v>
+      </c>
+      <c r="AC14">
+        <v>1.62</v>
+      </c>
+      <c r="AD14">
+        <v>4.12</v>
+      </c>
+      <c r="AE14">
+        <v>1.16</v>
+      </c>
+      <c r="AF14">
+        <v>2.1</v>
+      </c>
+      <c r="AG14">
+        <v>1.67</v>
+      </c>
+      <c r="AH14">
+        <v>7.7</v>
+      </c>
+      <c r="AI14">
         <v>1.02</v>
       </c>
-      <c r="Y14">
-        <v>8.1</v>
-      </c>
-      <c r="Z14">
-        <v>1.33</v>
-      </c>
-      <c r="AA14">
-        <v>2.88</v>
-      </c>
-      <c r="AB14">
-        <v>2.09</v>
-      </c>
-      <c r="AC14">
-        <v>1.7</v>
-      </c>
-      <c r="AD14">
-        <v>4</v>
-      </c>
-      <c r="AE14">
-        <v>1.23</v>
-      </c>
-      <c r="AF14">
-        <v>1.83</v>
-      </c>
-      <c r="AG14">
-        <v>1.93</v>
-      </c>
-      <c r="AH14">
-        <v>9</v>
-      </c>
-      <c r="AI14">
-        <v>1.04</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL14">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AM14">
         <v>1.27</v>
       </c>
       <c r="AN14">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
+        <v>1.43</v>
+      </c>
+      <c r="AQ14">
+        <v>1.72</v>
+      </c>
+      <c r="AR14">
+        <v>2.16</v>
+      </c>
+      <c r="AS14">
+        <v>2.8</v>
+      </c>
+      <c r="AT14">
+        <v>3.7</v>
+      </c>
+      <c r="AU14">
+        <v>2.55</v>
+      </c>
+      <c r="AV14">
+        <v>1.95</v>
+      </c>
+      <c r="AW14">
+        <v>1.58</v>
+      </c>
+      <c r="AX14">
         <v>1.36</v>
       </c>
-      <c r="AQ14">
-        <v>1.62</v>
-      </c>
-      <c r="AR14">
-        <v>2</v>
-      </c>
-      <c r="AS14">
-        <v>2.55</v>
-      </c>
-      <c r="AT14">
-        <v>3.4</v>
-      </c>
-      <c r="AU14">
-        <v>2.8</v>
-      </c>
-      <c r="AV14">
-        <v>2.1</v>
-      </c>
-      <c r="AW14">
-        <v>1.68</v>
-      </c>
-      <c r="AX14">
-        <v>1.42</v>
-      </c>
       <c r="AY14">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3098,16 +3116,16 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3122,127 +3140,127 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L15">
+        <v>3.35</v>
+      </c>
+      <c r="M15">
+        <v>3.34</v>
+      </c>
+      <c r="N15">
+        <v>2.12</v>
+      </c>
+      <c r="O15">
+        <v>2.38</v>
+      </c>
+      <c r="P15">
+        <v>7.8</v>
+      </c>
+      <c r="Q15">
+        <v>1.73</v>
+      </c>
+      <c r="R15">
+        <v>1.44</v>
+      </c>
+      <c r="S15">
         <v>2.65</v>
       </c>
-      <c r="M15">
-        <v>2.96</v>
-      </c>
-      <c r="N15">
-        <v>2.47</v>
-      </c>
-      <c r="O15">
-        <v>2.15</v>
-      </c>
-      <c r="P15">
-        <v>6.05</v>
-      </c>
-      <c r="Q15">
-        <v>2.06</v>
-      </c>
-      <c r="R15">
-        <v>1.56</v>
-      </c>
-      <c r="S15">
-        <v>2.28</v>
-      </c>
       <c r="T15">
-        <v>3.56</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="V15">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="W15">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="X15">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="Y15">
-        <v>6.05</v>
+        <v>7.8</v>
       </c>
       <c r="Z15">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="AA15">
-        <v>2.42</v>
+        <v>3.24</v>
       </c>
       <c r="AB15">
-        <v>2.49</v>
+        <v>1.92</v>
       </c>
       <c r="AC15">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="AD15">
-        <v>5.75</v>
+        <v>3.62</v>
       </c>
       <c r="AE15">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AF15">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="AG15">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH15">
-        <v>11</v>
+        <v>6.45</v>
       </c>
       <c r="AI15">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AJ15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL15">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AM15">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AN15">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AO15">
         <v>-1</v>
       </c>
       <c r="AP15">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AQ15">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="AR15">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="AS15">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="AT15">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="AU15">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="AV15">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="AW15">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="AX15">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AY15">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3251,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="BC15">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="BD15" s="3">
-        <v>45798.72916666666</v>
+        <v>45798.64583333334</v>
       </c>
     </row>
     <row r="16" spans="1:56">
@@ -3265,19 +3283,19 @@
         <v>45798</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3292,127 +3310,127 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L16">
-        <v>1.3</v>
+        <v>3.13</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
+        <v>2.33</v>
+      </c>
+      <c r="O16">
+        <v>2.3</v>
+      </c>
+      <c r="P16">
+        <v>8.5</v>
+      </c>
+      <c r="Q16">
+        <v>1.8</v>
+      </c>
+      <c r="R16">
+        <v>1.42</v>
+      </c>
+      <c r="S16">
+        <v>2.65</v>
+      </c>
+      <c r="T16">
+        <v>2.95</v>
+      </c>
+      <c r="U16">
+        <v>1.36</v>
+      </c>
+      <c r="V16">
         <v>7</v>
       </c>
-      <c r="O16">
-        <v>1.3</v>
-      </c>
-      <c r="P16">
-        <v>9.5</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16">
-        <v>1.34</v>
-      </c>
-      <c r="S16">
-        <v>2.9</v>
-      </c>
-      <c r="T16">
-        <v>2.65</v>
-      </c>
-      <c r="U16">
-        <v>1.41</v>
-      </c>
-      <c r="V16">
-        <v>6</v>
-      </c>
       <c r="W16">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="X16">
         <v>1.01</v>
       </c>
       <c r="Y16">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z16">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AA16">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="AB16">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="AC16">
+        <v>1.73</v>
+      </c>
+      <c r="AD16">
+        <v>3.79</v>
+      </c>
+      <c r="AE16">
+        <v>1.26</v>
+      </c>
+      <c r="AF16">
+        <v>1.77</v>
+      </c>
+      <c r="AG16">
         <v>1.91</v>
       </c>
-      <c r="AD16">
-        <v>3.05</v>
-      </c>
-      <c r="AE16">
-        <v>1.32</v>
-      </c>
-      <c r="AF16">
-        <v>1.92</v>
-      </c>
-      <c r="AG16">
-        <v>1.73</v>
-      </c>
       <c r="AH16">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="AI16">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AJ16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL16">
-        <v>1.06</v>
+        <v>1.57</v>
       </c>
       <c r="AM16">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AN16">
-        <v>2.55</v>
+        <v>1.34</v>
       </c>
       <c r="AO16">
         <v>-1</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -3421,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="BC16">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="BD16" s="3">
-        <v>45798.79166666666</v>
+        <v>45798.64583333334</v>
       </c>
     </row>
     <row r="17" spans="1:56">
@@ -3435,19 +3453,19 @@
         <v>45798</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3462,141 +3480,481 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L17">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="N17">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="O17">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="P17">
-        <v>7.7</v>
+        <v>6.05</v>
       </c>
       <c r="Q17">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R17">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S17">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="T17">
         <v>3.4</v>
       </c>
       <c r="U17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V17">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="X17">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="Y17">
-        <v>8.5</v>
+        <v>6.25</v>
       </c>
       <c r="Z17">
+        <v>1.5</v>
+      </c>
+      <c r="AA17">
+        <v>2.45</v>
+      </c>
+      <c r="AB17">
+        <v>2.6</v>
+      </c>
+      <c r="AC17">
         <v>1.44</v>
       </c>
-      <c r="AA17">
-        <v>2.62</v>
-      </c>
-      <c r="AB17">
-        <v>2.33</v>
-      </c>
-      <c r="AC17">
-        <v>1.55</v>
-      </c>
       <c r="AD17">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AE17">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AF17">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AG17">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AH17">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI17">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AJ17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL17">
+        <v>1.36</v>
+      </c>
+      <c r="AM17">
+        <v>1.34</v>
+      </c>
+      <c r="AN17">
         <v>1.5</v>
-      </c>
-      <c r="AM17">
-        <v>1.31</v>
-      </c>
-      <c r="AN17">
-        <v>1.38</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
+        <v>1.47</v>
+      </c>
+      <c r="AQ17">
+        <v>1.79</v>
+      </c>
+      <c r="AR17">
+        <v>2.28</v>
+      </c>
+      <c r="AS17">
+        <v>2.95</v>
+      </c>
+      <c r="AT17">
+        <v>3.95</v>
+      </c>
+      <c r="AU17">
+        <v>2.43</v>
+      </c>
+      <c r="AV17">
+        <v>1.87</v>
+      </c>
+      <c r="AW17">
         <v>1.53</v>
       </c>
-      <c r="AQ17">
+      <c r="AX17">
+        <v>1.33</v>
+      </c>
+      <c r="AY17">
+        <v>1.19</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>2.15</v>
+      </c>
+      <c r="BC17">
+        <v>2.06</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>45798.72916666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56">
+      <c r="A18" s="2">
+        <v>45798</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18">
+        <v>1.3</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>1.3</v>
+      </c>
+      <c r="P18">
+        <v>9.5</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>1.34</v>
+      </c>
+      <c r="S18">
+        <v>2.9</v>
+      </c>
+      <c r="T18">
+        <v>2.65</v>
+      </c>
+      <c r="U18">
+        <v>1.41</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>1.08</v>
+      </c>
+      <c r="X18">
+        <v>1.01</v>
+      </c>
+      <c r="Y18">
+        <v>9.5</v>
+      </c>
+      <c r="Z18">
+        <v>1.24</v>
+      </c>
+      <c r="AA18">
+        <v>3.42</v>
+      </c>
+      <c r="AB18">
+        <v>1.78</v>
+      </c>
+      <c r="AC18">
+        <v>1.91</v>
+      </c>
+      <c r="AD18">
+        <v>3.05</v>
+      </c>
+      <c r="AE18">
+        <v>1.32</v>
+      </c>
+      <c r="AF18">
+        <v>1.92</v>
+      </c>
+      <c r="AG18">
+        <v>1.73</v>
+      </c>
+      <c r="AH18">
+        <v>5.6</v>
+      </c>
+      <c r="AI18">
+        <v>1.1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL18">
+        <v>1.06</v>
+      </c>
+      <c r="AM18">
+        <v>1.17</v>
+      </c>
+      <c r="AN18">
+        <v>2.55</v>
+      </c>
+      <c r="AO18">
+        <v>-1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>1.3</v>
+      </c>
+      <c r="BC18">
+        <v>4</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>45798.79166666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56">
+      <c r="A19" s="2">
+        <v>45798</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19">
+        <v>2.69</v>
+      </c>
+      <c r="M19">
+        <v>3.1</v>
+      </c>
+      <c r="N19">
+        <v>2.6</v>
+      </c>
+      <c r="O19">
+        <v>2.09</v>
+      </c>
+      <c r="P19">
+        <v>7.7</v>
+      </c>
+      <c r="Q19">
+        <v>1.97</v>
+      </c>
+      <c r="R19">
+        <v>1.5</v>
+      </c>
+      <c r="S19">
+        <v>2.35</v>
+      </c>
+      <c r="T19">
+        <v>3.48</v>
+      </c>
+      <c r="U19">
+        <v>1.25</v>
+      </c>
+      <c r="V19">
+        <v>7.8</v>
+      </c>
+      <c r="W19">
+        <v>1.04</v>
+      </c>
+      <c r="X19">
+        <v>1.09</v>
+      </c>
+      <c r="Y19">
+        <v>6.5</v>
+      </c>
+      <c r="Z19">
+        <v>1.44</v>
+      </c>
+      <c r="AA19">
+        <v>2.49</v>
+      </c>
+      <c r="AB19">
+        <v>2.4</v>
+      </c>
+      <c r="AC19">
+        <v>1.5</v>
+      </c>
+      <c r="AD19">
+        <v>4.5</v>
+      </c>
+      <c r="AE19">
+        <v>1.17</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>1.79</v>
+      </c>
+      <c r="AH19">
+        <v>8.4</v>
+      </c>
+      <c r="AI19">
+        <v>1.05</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL19">
+        <v>1.4</v>
+      </c>
+      <c r="AM19">
+        <v>1.31</v>
+      </c>
+      <c r="AN19">
+        <v>1.44</v>
+      </c>
+      <c r="AO19">
+        <v>-1</v>
+      </c>
+      <c r="AP19">
+        <v>1.53</v>
+      </c>
+      <c r="AQ19">
         <v>1.89</v>
       </c>
-      <c r="AR17">
+      <c r="AR19">
         <v>2.43</v>
       </c>
-      <c r="AS17">
+      <c r="AS19">
         <v>3.2</v>
       </c>
-      <c r="AT17">
+      <c r="AT19">
         <v>4.35</v>
       </c>
-      <c r="AU17">
+      <c r="AU19">
         <v>2.28</v>
       </c>
-      <c r="AV17">
+      <c r="AV19">
         <v>1.77</v>
       </c>
-      <c r="AW17">
+      <c r="AW19">
         <v>1.47</v>
       </c>
-      <c r="AX17">
+      <c r="AX19">
         <v>1.28</v>
       </c>
-      <c r="AY17">
+      <c r="AY19">
         <v>1.15</v>
       </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
         <v>2.09</v>
       </c>
-      <c r="BC17">
+      <c r="BC19">
         <v>1.97</v>
       </c>
-      <c r="BD17" s="3">
+      <c r="BD19" s="3">
         <v>45798.83333333334</v>
       </c>
     </row>

--- a/jogos_2025-05-21.xlsx
+++ b/jogos_2025-05-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -187,6 +187,9 @@
     <t>07:00</t>
   </si>
   <si>
+    <t>09:30</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
@@ -208,18 +211,15 @@
     <t>15:30</t>
   </si>
   <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>20:00</t>
+    <t>19:30</t>
   </si>
   <si>
     <t>Japan J1 League</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Georgia Erovnuli Liga</t>
   </si>
   <si>
@@ -232,25 +232,22 @@
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
-    <t>Algeria Ligue 1</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
     <t>2024/2025</t>
   </si>
   <si>
+    <t>Kawasaki Frontale</t>
+  </si>
+  <si>
     <t>Yokohama F. Marinos</t>
   </si>
   <si>
-    <t>Kawasaki Frontale</t>
+    <t>General Caballero JLM</t>
   </si>
   <si>
     <t>Gagra</t>
@@ -268,43 +265,43 @@
     <t>Al Kholood</t>
   </si>
   <si>
+    <t>Västerås SK</t>
+  </si>
+  <si>
+    <t>Falkenberg</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
     <t>Utsikten</t>
   </si>
   <si>
-    <t>Falkenberg</t>
-  </si>
-  <si>
-    <t>Västerås SK</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
     <t>Al Wahda</t>
   </si>
   <si>
+    <t>Juve Stabia</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
+    <t>Atlético Tembetary</t>
+  </si>
+  <si>
     <t>Sportivo Ameliano</t>
   </si>
   <si>
-    <t>Juve Stabia</t>
-  </si>
-  <si>
-    <t>Catanzaro</t>
-  </si>
-  <si>
-    <t>General Caballero JLM</t>
-  </si>
-  <si>
-    <t>CS Constantine</t>
-  </si>
-  <si>
-    <t>Olimpia</t>
+    <t>Urawa Reds</t>
   </si>
   <si>
     <t>Vissel Kobe</t>
   </si>
   <si>
-    <t>Urawa Reds</t>
+    <t>2 de Mayo</t>
   </si>
   <si>
     <t>Gareji</t>
@@ -322,37 +319,34 @@
     <t>Al Feiha</t>
   </si>
   <si>
+    <t>Östersunds FK</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
+    <t>Sandviken</t>
+  </si>
+  <si>
     <t>Örebro</t>
   </si>
   <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Östersunds FK</t>
-  </si>
-  <si>
-    <t>Sandviken</t>
-  </si>
-  <si>
     <t>Al Hilal</t>
   </si>
   <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>Guaraní</t>
+  </si>
+  <si>
     <t>Cerro Porteño</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>2 de Mayo</t>
-  </si>
-  <si>
-    <t>MC Oran</t>
-  </si>
-  <si>
-    <t>Libertad</t>
   </si>
   <si>
     <t>incomplete</t>
@@ -906,16 +900,16 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -930,31 +924,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L2">
-        <v>3.23</v>
+        <v>2.03</v>
       </c>
       <c r="M2">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="N2">
-        <v>2.02</v>
+        <v>3.21</v>
       </c>
       <c r="O2">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="R2">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
         <v>2.75</v>
@@ -975,22 +969,22 @@
         <v>9</v>
       </c>
       <c r="Z2">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB2">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AC2">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AD2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE2">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF2">
         <v>1.8</v>
@@ -1005,52 +999,52 @@
         <v>1.1</v>
       </c>
       <c r="AJ2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL2">
-        <v>1.77</v>
+        <v>1.28</v>
       </c>
       <c r="AM2">
         <v>1.25</v>
       </c>
       <c r="AN2">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="AO2">
         <v>-1</v>
       </c>
       <c r="AP2">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AR2">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS2">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT2">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="AU2">
-        <v>3.9</v>
+        <v>3.72</v>
       </c>
       <c r="AV2">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AW2">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AX2">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AY2">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1059,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="BC2">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="BD2" s="3">
         <v>45798.29166666666</v>
@@ -1076,16 +1070,16 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1100,31 +1094,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L3">
-        <v>2.03</v>
+        <v>3.23</v>
       </c>
       <c r="M3">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="N3">
-        <v>3.21</v>
+        <v>2.02</v>
       </c>
       <c r="O3">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="P3">
         <v>9</v>
       </c>
       <c r="Q3">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="R3">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>2.75</v>
@@ -1145,22 +1139,22 @@
         <v>9</v>
       </c>
       <c r="Z3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB3">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AC3">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AD3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE3">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
         <v>1.8</v>
@@ -1175,52 +1169,52 @@
         <v>1.1</v>
       </c>
       <c r="AJ3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL3">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="AM3">
         <v>1.25</v>
       </c>
       <c r="AN3">
-        <v>1.77</v>
+        <v>1.28</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ3">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AR3">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS3">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="AT3">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="AU3">
-        <v>3.72</v>
+        <v>3.9</v>
       </c>
       <c r="AV3">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AW3">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AX3">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AY3">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1229,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
+        <v>2.4</v>
+      </c>
+      <c r="BC3">
         <v>1.62</v>
-      </c>
-      <c r="BC3">
-        <v>2.5</v>
       </c>
       <c r="BD3" s="3">
         <v>45798.29166666666</v>
@@ -1246,16 +1240,16 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1270,127 +1264,127 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AO4">
         <v>-1</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1399,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BD4" s="3">
-        <v>45798.5</v>
+        <v>45798.39583333334</v>
       </c>
     </row>
     <row r="5" spans="1:56">
@@ -1413,19 +1407,19 @@
         <v>45798</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1440,127 +1434,127 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M5">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="O5">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="R5">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="AB5">
+        <v>2.1</v>
+      </c>
+      <c r="AC5">
         <v>1.7</v>
       </c>
-      <c r="AC5">
-        <v>2.15</v>
-      </c>
       <c r="AD5">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL5">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>-1</v>
       </c>
       <c r="AP5">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1569,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BC5">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="BD5" s="3">
         <v>45798.5</v>
@@ -1586,16 +1580,16 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1610,127 +1604,127 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AJ6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AO6">
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -1739,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BD6" s="3">
-        <v>45798.54166666666</v>
+        <v>45798.5</v>
       </c>
     </row>
     <row r="7" spans="1:56">
@@ -1756,16 +1750,16 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1780,127 +1774,127 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>10.5</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="P7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="R7">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AC7">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="AD7">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL7">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>-1</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -1909,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1.22</v>
+        <v>2.5</v>
       </c>
       <c r="BC7">
-        <v>4</v>
+        <v>1.73</v>
       </c>
       <c r="BD7" s="3">
-        <v>45798.54861111111</v>
+        <v>45798.54166666666</v>
       </c>
     </row>
     <row r="8" spans="1:56">
@@ -1929,13 +1923,13 @@
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1950,67 +1944,67 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L8">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="M8">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="N8">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
       <c r="O8">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Q8">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="S8">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="U8">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="W8">
+        <v>1.25</v>
+      </c>
+      <c r="X8">
+        <v>1.01</v>
+      </c>
+      <c r="Y8">
+        <v>11</v>
+      </c>
+      <c r="Z8">
         <v>1.08</v>
       </c>
-      <c r="X8">
-        <v>1.05</v>
-      </c>
-      <c r="Y8">
-        <v>9</v>
-      </c>
-      <c r="Z8">
+      <c r="AA8">
+        <v>7.5</v>
+      </c>
+      <c r="AB8">
         <v>1.3</v>
       </c>
-      <c r="AA8">
-        <v>3.45</v>
-      </c>
-      <c r="AB8">
-        <v>1.88</v>
-      </c>
       <c r="AC8">
-        <v>1.86</v>
+        <v>3.4</v>
       </c>
       <c r="AD8">
-        <v>3.35</v>
+        <v>1.92</v>
       </c>
       <c r="AE8">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="AF8">
         <v>1.73</v>
@@ -2019,58 +2013,58 @@
         <v>2</v>
       </c>
       <c r="AH8">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="AI8">
+        <v>1.44</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL8">
+        <v>1.05</v>
+      </c>
+      <c r="AM8">
         <v>1.1</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL8">
-        <v>1.42</v>
-      </c>
-      <c r="AM8">
-        <v>1.25</v>
-      </c>
       <c r="AN8">
-        <v>1.53</v>
+        <v>4</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AQ8">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AR8">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AS8">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="AT8">
-        <v>2.92</v>
+        <v>3.34</v>
       </c>
       <c r="AU8">
-        <v>3.58</v>
+        <v>3.14</v>
       </c>
       <c r="AV8">
-        <v>2.52</v>
+        <v>2.26</v>
       </c>
       <c r="AW8">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AX8">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AY8">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2079,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="BC8">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="BD8" s="3">
-        <v>45798.55902777778</v>
+        <v>45798.54861111111</v>
       </c>
     </row>
     <row r="9" spans="1:56">
@@ -2096,16 +2090,16 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2120,127 +2114,127 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L9">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="M9">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="N9">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="O9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q9">
         <v>2.2</v>
       </c>
       <c r="R9">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S9">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V9">
-        <v>6.05</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="X9">
         <v>1.05</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z9">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA9">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="AB9">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AC9">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AD9">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AE9">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AF9">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AG9">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI9">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL9">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AM9">
         <v>1.25</v>
       </c>
       <c r="AN9">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AO9">
         <v>-1</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AR9">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="AS9">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="AT9">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="AU9">
-        <v>4.1</v>
+        <v>3.58</v>
       </c>
       <c r="AV9">
-        <v>2.95</v>
+        <v>2.52</v>
       </c>
       <c r="AW9">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="AX9">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="AY9">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -2249,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BC9">
         <v>2.2</v>
       </c>
       <c r="BD9" s="3">
-        <v>45798.58333333334</v>
+        <v>45798.55902777778</v>
       </c>
     </row>
     <row r="10" spans="1:56">
@@ -2263,19 +2257,19 @@
         <v>45798</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2290,61 +2284,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L10">
-        <v>2.17</v>
+        <v>1.53</v>
       </c>
       <c r="M10">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="N10">
-        <v>2.74</v>
+        <v>4.75</v>
       </c>
       <c r="O10">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q10">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="R10">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S10">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="T10">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="U10">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="V10">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="W10">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X10">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10">
         <v>1.25</v>
       </c>
       <c r="AA10">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB10">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AC10">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="AD10">
         <v>3</v>
@@ -2353,10 +2347,10 @@
         <v>1.4</v>
       </c>
       <c r="AF10">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AG10">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AH10">
         <v>5.75</v>
@@ -2365,19 +2359,19 @@
         <v>1.14</v>
       </c>
       <c r="AJ10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL10">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AM10">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AN10">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2386,31 +2380,31 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AR10">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS10">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AT10">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU10">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AV10">
         <v>2.9</v>
       </c>
       <c r="AW10">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AX10">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AY10">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2419,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="BC10">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="BD10" s="3">
         <v>45798.58333333334</v>
@@ -2433,19 +2427,19 @@
         <v>45798</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2460,61 +2454,61 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L11">
-        <v>1.53</v>
+        <v>2.17</v>
       </c>
       <c r="M11">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="N11">
-        <v>4.75</v>
+        <v>2.74</v>
       </c>
       <c r="O11">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="P11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="R11">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S11">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="T11">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="U11">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="V11">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="W11">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X11">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11">
         <v>1.25</v>
       </c>
       <c r="AA11">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AB11">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AC11">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AD11">
         <v>3</v>
@@ -2523,10 +2517,10 @@
         <v>1.4</v>
       </c>
       <c r="AF11">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AG11">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AH11">
         <v>5.75</v>
@@ -2535,19 +2529,19 @@
         <v>1.14</v>
       </c>
       <c r="AJ11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL11">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AM11">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AN11">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AO11">
         <v>-1</v>
@@ -2556,31 +2550,31 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AR11">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS11">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AT11">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AU11">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AV11">
         <v>2.9</v>
       </c>
       <c r="AW11">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AX11">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="AY11">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -2589,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="BC11">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="BD11" s="3">
         <v>45798.58333333334</v>
@@ -2603,19 +2597,19 @@
         <v>45798</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2630,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L12">
         <v>2.1</v>
@@ -2705,10 +2699,10 @@
         <v>1.2</v>
       </c>
       <c r="AJ12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL12">
         <v>1.38</v>
@@ -2776,16 +2770,16 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2800,127 +2794,127 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13">
-        <v>9.5</v>
+        <v>2.14</v>
       </c>
       <c r="M13">
-        <v>6.75</v>
+        <v>3.33</v>
       </c>
       <c r="N13">
-        <v>1.2</v>
+        <v>2.84</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="P13">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="Q13">
+        <v>2.2</v>
+      </c>
+      <c r="R13">
+        <v>1.36</v>
+      </c>
+      <c r="S13">
+        <v>2.9</v>
+      </c>
+      <c r="T13">
+        <v>2.65</v>
+      </c>
+      <c r="U13">
+        <v>1.42</v>
+      </c>
+      <c r="V13">
+        <v>6.05</v>
+      </c>
+      <c r="W13">
+        <v>1.06</v>
+      </c>
+      <c r="X13">
+        <v>1.05</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>1.28</v>
+      </c>
+      <c r="AA13">
+        <v>3.8</v>
+      </c>
+      <c r="AB13">
+        <v>1.8</v>
+      </c>
+      <c r="AC13">
+        <v>1.9</v>
+      </c>
+      <c r="AD13">
+        <v>3.1</v>
+      </c>
+      <c r="AE13">
+        <v>1.38</v>
+      </c>
+      <c r="AF13">
+        <v>1.62</v>
+      </c>
+      <c r="AG13">
+        <v>2.1</v>
+      </c>
+      <c r="AH13">
+        <v>6</v>
+      </c>
+      <c r="AI13">
+        <v>1.13</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL13">
+        <v>1.38</v>
+      </c>
+      <c r="AM13">
         <v>1.25</v>
       </c>
-      <c r="R13">
-        <v>1.17</v>
-      </c>
-      <c r="S13">
-        <v>4.5</v>
-      </c>
-      <c r="T13">
-        <v>1.83</v>
-      </c>
-      <c r="U13">
-        <v>1.83</v>
-      </c>
-      <c r="V13">
-        <v>3.75</v>
-      </c>
-      <c r="W13">
-        <v>1.25</v>
-      </c>
-      <c r="X13">
-        <v>1.01</v>
-      </c>
-      <c r="Y13">
-        <v>11</v>
-      </c>
-      <c r="Z13">
-        <v>1.08</v>
-      </c>
-      <c r="AA13">
-        <v>7.5</v>
-      </c>
-      <c r="AB13">
-        <v>1.3</v>
-      </c>
-      <c r="AC13">
-        <v>3.4</v>
-      </c>
-      <c r="AD13">
-        <v>1.7</v>
-      </c>
-      <c r="AE13">
-        <v>2.08</v>
-      </c>
-      <c r="AF13">
-        <v>1.57</v>
-      </c>
-      <c r="AG13">
-        <v>2.25</v>
-      </c>
-      <c r="AH13">
-        <v>2.75</v>
-      </c>
-      <c r="AI13">
-        <v>1.44</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL13">
-        <v>3.45</v>
-      </c>
-      <c r="AM13">
-        <v>1.08</v>
-      </c>
       <c r="AN13">
-        <v>1.07</v>
+        <v>1.62</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AS13">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AT13">
-        <v>2.83</v>
+        <v>2.3</v>
       </c>
       <c r="AU13">
-        <v>3.58</v>
+        <v>4.1</v>
       </c>
       <c r="AV13">
-        <v>2.56</v>
+        <v>2.95</v>
       </c>
       <c r="AW13">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="AX13">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AY13">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2929,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="BC13">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="BD13" s="3">
-        <v>45798.625</v>
+        <v>45798.58333333334</v>
       </c>
     </row>
     <row r="14" spans="1:56">
@@ -2943,19 +2937,19 @@
         <v>45798</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2970,127 +2964,127 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="M14">
+        <v>6.75</v>
+      </c>
+      <c r="N14">
+        <v>1.2</v>
+      </c>
+      <c r="O14">
+        <v>3.75</v>
+      </c>
+      <c r="P14">
+        <v>26</v>
+      </c>
+      <c r="Q14">
+        <v>1.25</v>
+      </c>
+      <c r="R14">
+        <v>1.17</v>
+      </c>
+      <c r="S14">
+        <v>4.5</v>
+      </c>
+      <c r="T14">
+        <v>1.83</v>
+      </c>
+      <c r="U14">
+        <v>1.83</v>
+      </c>
+      <c r="V14">
+        <v>3.75</v>
+      </c>
+      <c r="W14">
+        <v>1.25</v>
+      </c>
+      <c r="X14">
+        <v>1.01</v>
+      </c>
+      <c r="Y14">
+        <v>11</v>
+      </c>
+      <c r="Z14">
+        <v>1.08</v>
+      </c>
+      <c r="AA14">
+        <v>7.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.3</v>
+      </c>
+      <c r="AC14">
         <v>3.4</v>
       </c>
-      <c r="N14">
-        <v>1.74</v>
-      </c>
-      <c r="O14">
-        <v>2.34</v>
-      </c>
-      <c r="P14">
-        <v>8.1</v>
-      </c>
-      <c r="Q14">
-        <v>1.77</v>
-      </c>
-      <c r="R14">
-        <v>1.48</v>
-      </c>
-      <c r="S14">
-        <v>2.52</v>
-      </c>
-      <c r="T14">
+      <c r="AD14">
+        <v>1.7</v>
+      </c>
+      <c r="AE14">
+        <v>2.08</v>
+      </c>
+      <c r="AF14">
+        <v>1.57</v>
+      </c>
+      <c r="AG14">
+        <v>2.25</v>
+      </c>
+      <c r="AH14">
+        <v>2.75</v>
+      </c>
+      <c r="AI14">
+        <v>1.44</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL14">
         <v>3.45</v>
       </c>
-      <c r="U14">
-        <v>1.3</v>
-      </c>
-      <c r="V14">
-        <v>6.8</v>
-      </c>
-      <c r="W14">
-        <v>1.06</v>
-      </c>
-      <c r="X14">
+      <c r="AM14">
+        <v>1.08</v>
+      </c>
+      <c r="AN14">
         <v>1.07</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>1.42</v>
-      </c>
-      <c r="AA14">
-        <v>2.66</v>
-      </c>
-      <c r="AB14">
-        <v>2.22</v>
-      </c>
-      <c r="AC14">
-        <v>1.62</v>
-      </c>
-      <c r="AD14">
-        <v>4.12</v>
-      </c>
-      <c r="AE14">
-        <v>1.16</v>
-      </c>
-      <c r="AF14">
-        <v>2.1</v>
-      </c>
-      <c r="AG14">
-        <v>1.67</v>
-      </c>
-      <c r="AH14">
-        <v>7.7</v>
-      </c>
-      <c r="AI14">
-        <v>1.02</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL14">
-        <v>1.3</v>
-      </c>
-      <c r="AM14">
-        <v>1.27</v>
-      </c>
-      <c r="AN14">
-        <v>1.22</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AQ14">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
-        <v>2.16</v>
+        <v>1.71</v>
       </c>
       <c r="AS14">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="AT14">
-        <v>3.7</v>
+        <v>2.83</v>
       </c>
       <c r="AU14">
-        <v>2.55</v>
+        <v>3.58</v>
       </c>
       <c r="AV14">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="AW14">
-        <v>1.58</v>
+        <v>1.97</v>
       </c>
       <c r="AX14">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="AY14">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3099,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="BC14">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="BD14" s="3">
         <v>45798.625</v>
@@ -3113,19 +3107,19 @@
         <v>45798</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3140,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L15">
         <v>3.35</v>
@@ -3215,10 +3209,10 @@
         <v>1.05</v>
       </c>
       <c r="AJ15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL15">
         <v>1.68</v>
@@ -3283,19 +3277,19 @@
         <v>45798</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3310,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L16">
         <v>3.13</v>
@@ -3385,10 +3379,10 @@
         <v>1.02</v>
       </c>
       <c r="AJ16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL16">
         <v>1.57</v>
@@ -3453,19 +3447,19 @@
         <v>45798</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3480,127 +3474,127 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17">
         <v>2.65</v>
       </c>
       <c r="M17">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="N17">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="O17">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="P17">
-        <v>6.05</v>
+        <v>7.7</v>
       </c>
       <c r="Q17">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R17">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="S17">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="T17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U17">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V17">
         <v>10</v>
       </c>
       <c r="W17">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="Y17">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="Z17">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AA17">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AB17">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AC17">
+        <v>1.53</v>
+      </c>
+      <c r="AD17">
+        <v>4.9</v>
+      </c>
+      <c r="AE17">
+        <v>1.17</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
+      </c>
+      <c r="AG17">
+        <v>1.75</v>
+      </c>
+      <c r="AH17">
+        <v>8.4</v>
+      </c>
+      <c r="AI17">
+        <v>1.05</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL17">
+        <v>1.4</v>
+      </c>
+      <c r="AM17">
+        <v>1.31</v>
+      </c>
+      <c r="AN17">
         <v>1.44</v>
-      </c>
-      <c r="AD17">
-        <v>5</v>
-      </c>
-      <c r="AE17">
-        <v>1.12</v>
-      </c>
-      <c r="AF17">
-        <v>2.05</v>
-      </c>
-      <c r="AG17">
-        <v>1.7</v>
-      </c>
-      <c r="AH17">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AI17">
-        <v>1.04</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL17">
-        <v>1.36</v>
-      </c>
-      <c r="AM17">
-        <v>1.34</v>
-      </c>
-      <c r="AN17">
-        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AQ17">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="AR17">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="AS17">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AT17">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="AU17">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AV17">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AW17">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AX17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AY17">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -3609,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="BC17">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="BD17" s="3">
-        <v>45798.72916666666</v>
+        <v>45798.8125</v>
       </c>
     </row>
     <row r="18" spans="1:56">
@@ -3626,151 +3620,151 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>111</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>113</v>
-      </c>
       <c r="L18">
+        <v>3.09</v>
+      </c>
+      <c r="M18">
+        <v>3.09</v>
+      </c>
+      <c r="N18">
+        <v>2.12</v>
+      </c>
+      <c r="O18">
+        <v>2.25</v>
+      </c>
+      <c r="P18">
+        <v>7.5</v>
+      </c>
+      <c r="Q18">
+        <v>1.93</v>
+      </c>
+      <c r="R18">
+        <v>1.5</v>
+      </c>
+      <c r="S18">
+        <v>2.4</v>
+      </c>
+      <c r="T18">
+        <v>3.2</v>
+      </c>
+      <c r="U18">
+        <v>1.27</v>
+      </c>
+      <c r="V18">
+        <v>9.5</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1.09</v>
+      </c>
+      <c r="Y18">
+        <v>6.75</v>
+      </c>
+      <c r="Z18">
+        <v>1.48</v>
+      </c>
+      <c r="AA18">
+        <v>2.5</v>
+      </c>
+      <c r="AB18">
+        <v>2.36</v>
+      </c>
+      <c r="AC18">
+        <v>1.52</v>
+      </c>
+      <c r="AD18">
+        <v>4.7</v>
+      </c>
+      <c r="AE18">
+        <v>1.18</v>
+      </c>
+      <c r="AF18">
+        <v>1.91</v>
+      </c>
+      <c r="AG18">
+        <v>1.75</v>
+      </c>
+      <c r="AH18">
+        <v>9</v>
+      </c>
+      <c r="AI18">
+        <v>1.03</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL18">
+        <v>1.36</v>
+      </c>
+      <c r="AM18">
         <v>1.3</v>
       </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
-      <c r="O18">
-        <v>1.3</v>
-      </c>
-      <c r="P18">
-        <v>9.5</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>1.34</v>
-      </c>
-      <c r="S18">
-        <v>2.9</v>
-      </c>
-      <c r="T18">
-        <v>2.65</v>
-      </c>
-      <c r="U18">
-        <v>1.41</v>
-      </c>
-      <c r="V18">
-        <v>6</v>
-      </c>
-      <c r="W18">
-        <v>1.08</v>
-      </c>
-      <c r="X18">
-        <v>1.01</v>
-      </c>
-      <c r="Y18">
-        <v>9.5</v>
-      </c>
-      <c r="Z18">
-        <v>1.24</v>
-      </c>
-      <c r="AA18">
-        <v>3.42</v>
-      </c>
-      <c r="AB18">
-        <v>1.78</v>
-      </c>
-      <c r="AC18">
-        <v>1.91</v>
-      </c>
-      <c r="AD18">
-        <v>3.05</v>
-      </c>
-      <c r="AE18">
-        <v>1.32</v>
-      </c>
-      <c r="AF18">
-        <v>1.92</v>
-      </c>
-      <c r="AG18">
-        <v>1.73</v>
-      </c>
-      <c r="AH18">
-        <v>5.6</v>
-      </c>
-      <c r="AI18">
-        <v>1.1</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL18">
-        <v>1.06</v>
-      </c>
-      <c r="AM18">
-        <v>1.17</v>
-      </c>
       <c r="AN18">
-        <v>2.55</v>
+        <v>1.35</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3779,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="BC18">
-        <v>4</v>
+        <v>1.93</v>
       </c>
       <c r="BD18" s="3">
-        <v>45798.79166666666</v>
+        <v>45798.8125</v>
       </c>
     </row>
     <row r="19" spans="1:56">
@@ -3793,19 +3787,19 @@
         <v>45798</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3820,142 +3814,142 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L19">
-        <v>2.69</v>
+        <v>3.13</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="N19">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="O19">
-        <v>2.09</v>
+        <v>2.34</v>
       </c>
       <c r="P19">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="Q19">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="R19">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S19">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="T19">
-        <v>3.48</v>
+        <v>3.26</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V19">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="W19">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="X19">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="Y19">
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="Z19">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA19">
-        <v>2.49</v>
+        <v>2.8</v>
       </c>
       <c r="AB19">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC19">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AD19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AE19">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF19">
         <v>2</v>
       </c>
       <c r="AG19">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AH19">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AI19">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AJ19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL19">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="AM19">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AN19">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
+        <v>1.39</v>
+      </c>
+      <c r="AQ19">
+        <v>1.73</v>
+      </c>
+      <c r="AR19">
+        <v>2.21</v>
+      </c>
+      <c r="AS19">
+        <v>2.97</v>
+      </c>
+      <c r="AT19">
+        <v>3.7</v>
+      </c>
+      <c r="AU19">
+        <v>2.59</v>
+      </c>
+      <c r="AV19">
+        <v>1.95</v>
+      </c>
+      <c r="AW19">
         <v>1.53</v>
       </c>
-      <c r="AQ19">
-        <v>1.89</v>
-      </c>
-      <c r="AR19">
-        <v>2.43</v>
-      </c>
-      <c r="AS19">
-        <v>3.2</v>
-      </c>
-      <c r="AT19">
-        <v>4.35</v>
-      </c>
-      <c r="AU19">
-        <v>2.28</v>
-      </c>
-      <c r="AV19">
+      <c r="AX19">
+        <v>1.3</v>
+      </c>
+      <c r="AY19">
+        <v>1.22</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>2.34</v>
+      </c>
+      <c r="BC19">
         <v>1.77</v>
       </c>
-      <c r="AW19">
-        <v>1.47</v>
-      </c>
-      <c r="AX19">
-        <v>1.28</v>
-      </c>
-      <c r="AY19">
-        <v>1.15</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>2.09</v>
-      </c>
-      <c r="BC19">
-        <v>1.97</v>
-      </c>
       <c r="BD19" s="3">
-        <v>45798.83333333334</v>
+        <v>45798.8125</v>
       </c>
     </row>
   </sheetData>

--- a/jogos_2025-05-21.xlsx
+++ b/jogos_2025-05-21.xlsx
@@ -220,12 +220,12 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Finland Veikkausliiga</t>
+  </si>
+  <si>
     <t>Georgia Erovnuli Liga</t>
   </si>
   <si>
-    <t>Finland Veikkausliiga</t>
-  </si>
-  <si>
     <t>Saudi Arabia Professional League</t>
   </si>
   <si>
@@ -241,21 +241,21 @@
     <t>2024/2025</t>
   </si>
   <si>
+    <t>Yokohama F. Marinos</t>
+  </si>
+  <si>
     <t>Kawasaki Frontale</t>
   </si>
   <si>
-    <t>Yokohama F. Marinos</t>
-  </si>
-  <si>
     <t>General Caballero JLM</t>
   </si>
   <si>
+    <t>Ilves</t>
+  </si>
+  <si>
     <t>Gagra</t>
   </si>
   <si>
-    <t>Ilves</t>
-  </si>
-  <si>
     <t>Telavi</t>
   </si>
   <si>
@@ -265,18 +265,18 @@
     <t>Al Kholood</t>
   </si>
   <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
+    <t>Falkenberg</t>
+  </si>
+  <si>
+    <t>Örgryte</t>
+  </si>
+  <si>
     <t>Västerås SK</t>
   </si>
   <si>
-    <t>Falkenberg</t>
-  </si>
-  <si>
-    <t>Örgryte</t>
-  </si>
-  <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
     <t>Al Wahda</t>
   </si>
   <si>
@@ -286,30 +286,30 @@
     <t>Catanzaro</t>
   </si>
   <si>
+    <t>Atlético Tembetary</t>
+  </si>
+  <si>
     <t>Olimpia</t>
   </si>
   <si>
-    <t>Atlético Tembetary</t>
-  </si>
-  <si>
     <t>Sportivo Ameliano</t>
   </si>
   <si>
+    <t>Vissel Kobe</t>
+  </si>
+  <si>
     <t>Urawa Reds</t>
   </si>
   <si>
-    <t>Vissel Kobe</t>
-  </si>
-  <si>
     <t>2 de Mayo</t>
   </si>
   <si>
+    <t>KuPS</t>
+  </si>
+  <si>
     <t>Gareji</t>
   </si>
   <si>
-    <t>KuPS</t>
-  </si>
-  <si>
     <t>Dinamo Batumi</t>
   </si>
   <si>
@@ -319,18 +319,18 @@
     <t>Al Feiha</t>
   </si>
   <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
+    <t>Sandviken</t>
+  </si>
+  <si>
     <t>Östersunds FK</t>
   </si>
   <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Sandviken</t>
-  </si>
-  <si>
-    <t>Örebro</t>
-  </si>
-  <si>
     <t>Al Hilal</t>
   </si>
   <si>
@@ -340,10 +340,10 @@
     <t>Spezia</t>
   </si>
   <si>
+    <t>Guaraní</t>
+  </si>
+  <si>
     <t>Libertad</t>
-  </si>
-  <si>
-    <t>Guaraní</t>
   </si>
   <si>
     <t>Cerro Porteño</t>
@@ -927,28 +927,28 @@
         <v>111</v>
       </c>
       <c r="L2">
-        <v>2.03</v>
+        <v>3.23</v>
       </c>
       <c r="M2">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="N2">
-        <v>3.21</v>
+        <v>2.02</v>
       </c>
       <c r="O2">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="P2">
         <v>9</v>
       </c>
       <c r="Q2">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="R2">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T2">
         <v>2.75</v>
@@ -969,22 +969,22 @@
         <v>9</v>
       </c>
       <c r="Z2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB2">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AC2">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AD2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE2">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF2">
         <v>1.8</v>
@@ -1005,46 +1005,46 @@
         <v>112</v>
       </c>
       <c r="AL2">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="AM2">
         <v>1.25</v>
       </c>
       <c r="AN2">
-        <v>1.77</v>
+        <v>1.28</v>
       </c>
       <c r="AO2">
         <v>-1</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AR2">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS2">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="AT2">
-        <v>2.83</v>
+        <v>2.7</v>
       </c>
       <c r="AU2">
-        <v>3.72</v>
+        <v>3.9</v>
       </c>
       <c r="AV2">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AW2">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AX2">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AY2">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
+        <v>2.4</v>
+      </c>
+      <c r="BC2">
         <v>1.62</v>
-      </c>
-      <c r="BC2">
-        <v>2.5</v>
       </c>
       <c r="BD2" s="3">
         <v>45798.29166666666</v>
@@ -1097,28 +1097,28 @@
         <v>111</v>
       </c>
       <c r="L3">
-        <v>3.23</v>
+        <v>2.03</v>
       </c>
       <c r="M3">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="N3">
-        <v>2.02</v>
+        <v>3.21</v>
       </c>
       <c r="O3">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
         <v>9</v>
       </c>
       <c r="Q3">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="R3">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T3">
         <v>2.75</v>
@@ -1139,22 +1139,22 @@
         <v>9</v>
       </c>
       <c r="Z3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB3">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AC3">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AD3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE3">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF3">
         <v>1.8</v>
@@ -1175,46 +1175,46 @@
         <v>112</v>
       </c>
       <c r="AL3">
-        <v>1.77</v>
+        <v>1.28</v>
       </c>
       <c r="AM3">
         <v>1.25</v>
       </c>
       <c r="AN3">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AR3">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="AS3">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="AU3">
-        <v>3.9</v>
+        <v>3.72</v>
       </c>
       <c r="AV3">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AW3">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AX3">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AY3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="BC3">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="BD3" s="3">
         <v>45798.29166666666</v>
@@ -1285,13 +1285,13 @@
         <v>2.06</v>
       </c>
       <c r="R4">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="S4">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="T4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="U4">
         <v>1.25</v>
@@ -1300,19 +1300,19 @@
         <v>9</v>
       </c>
       <c r="W4">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="X4">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="Y4">
         <v>6</v>
       </c>
       <c r="Z4">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AA4">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AB4">
         <v>2.56</v>
@@ -1321,19 +1321,19 @@
         <v>1.45</v>
       </c>
       <c r="AD4">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AE4">
         <v>1.15</v>
       </c>
       <c r="AF4">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AG4">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AH4">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1351,37 +1351,37 @@
         <v>1.34</v>
       </c>
       <c r="AN4">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AO4">
         <v>-1</v>
       </c>
       <c r="AP4">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR4">
         <v>2.38</v>
       </c>
       <c r="AS4">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="AT4">
         <v>4</v>
       </c>
       <c r="AU4">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AV4">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AW4">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AX4">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AY4">
         <v>1.2</v>
@@ -1437,76 +1437,76 @@
         <v>111</v>
       </c>
       <c r="L5">
+        <v>2.38</v>
+      </c>
+      <c r="M5">
+        <v>3.55</v>
+      </c>
+      <c r="N5">
+        <v>2.96</v>
+      </c>
+      <c r="O5">
         <v>1.95</v>
       </c>
-      <c r="M5">
-        <v>3.4</v>
-      </c>
-      <c r="N5">
-        <v>3.2</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>2.05</v>
+      </c>
+      <c r="R5">
+        <v>1.33</v>
+      </c>
+      <c r="S5">
+        <v>3.25</v>
+      </c>
+      <c r="T5">
+        <v>2.48</v>
+      </c>
+      <c r="U5">
+        <v>1.5</v>
+      </c>
+      <c r="V5">
+        <v>6.25</v>
+      </c>
+      <c r="W5">
+        <v>1.11</v>
+      </c>
+      <c r="X5">
+        <v>1.02</v>
+      </c>
+      <c r="Y5">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>1.22</v>
+      </c>
+      <c r="AA5">
+        <v>3.9</v>
+      </c>
+      <c r="AB5">
         <v>1.67</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2.6</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2.1</v>
       </c>
-      <c r="AC5">
-        <v>1.7</v>
-      </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AJ5" t="s">
         <v>112</v>
@@ -1515,46 +1515,46 @@
         <v>112</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AO5">
         <v>-1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="BC5">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="BD5" s="3">
         <v>45798.5</v>
@@ -1607,76 +1607,76 @@
         <v>111</v>
       </c>
       <c r="L6">
-        <v>2.36</v>
+        <v>2.03</v>
       </c>
       <c r="M6">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="O6">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="R6">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="S6">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="T6">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="V6">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="W6">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="X6">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Y6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z6">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AA6">
-        <v>4.15</v>
+        <v>3.1</v>
       </c>
       <c r="AB6">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AC6">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD6">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="AE6">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AF6">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AG6">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AH6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI6">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="AJ6" t="s">
         <v>112</v>
@@ -1685,46 +1685,46 @@
         <v>112</v>
       </c>
       <c r="AL6">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM6">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AN6">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AO6">
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BC6">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="BD6" s="3">
         <v>45798.5</v>
@@ -1750,7 +1750,7 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
@@ -1780,10 +1780,10 @@
         <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="O7">
         <v>2.5</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AC7">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2287,76 +2287,76 @@
         <v>111</v>
       </c>
       <c r="L10">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="M10">
-        <v>3.9</v>
+        <v>3.33</v>
       </c>
       <c r="N10">
-        <v>4.75</v>
+        <v>2.84</v>
       </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10">
+        <v>2.2</v>
+      </c>
+      <c r="R10">
+        <v>1.36</v>
+      </c>
+      <c r="S10">
         <v>2.9</v>
       </c>
-      <c r="R10">
-        <v>1.3</v>
-      </c>
-      <c r="S10">
-        <v>3.2</v>
-      </c>
       <c r="T10">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="U10">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="V10">
+        <v>6.05</v>
+      </c>
+      <c r="W10">
+        <v>1.06</v>
+      </c>
+      <c r="X10">
+        <v>1.05</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>1.28</v>
+      </c>
+      <c r="AA10">
+        <v>3.8</v>
+      </c>
+      <c r="AB10">
+        <v>1.8</v>
+      </c>
+      <c r="AC10">
+        <v>1.9</v>
+      </c>
+      <c r="AD10">
+        <v>3.1</v>
+      </c>
+      <c r="AE10">
+        <v>1.38</v>
+      </c>
+      <c r="AF10">
+        <v>1.62</v>
+      </c>
+      <c r="AG10">
+        <v>2.1</v>
+      </c>
+      <c r="AH10">
         <v>6</v>
       </c>
-      <c r="W10">
-        <v>1.07</v>
-      </c>
-      <c r="X10">
-        <v>1.04</v>
-      </c>
-      <c r="Y10">
-        <v>11</v>
-      </c>
-      <c r="Z10">
-        <v>1.25</v>
-      </c>
-      <c r="AA10">
-        <v>4</v>
-      </c>
-      <c r="AB10">
-        <v>1.79</v>
-      </c>
-      <c r="AC10">
-        <v>1.91</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
-      <c r="AE10">
-        <v>1.4</v>
-      </c>
-      <c r="AF10">
-        <v>1.77</v>
-      </c>
-      <c r="AG10">
-        <v>1.9</v>
-      </c>
-      <c r="AH10">
-        <v>5.75</v>
-      </c>
       <c r="AI10">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AJ10" t="s">
         <v>112</v>
@@ -2365,46 +2365,46 @@
         <v>112</v>
       </c>
       <c r="AL10">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AM10">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AN10">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="AO10">
         <v>-1</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS10">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AT10">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AU10">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AV10">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AW10">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="AX10">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AY10">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AZ10">
         <v>0</v>
@@ -2413,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="BC10">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="BD10" s="3">
         <v>45798.58333333334</v>
@@ -2797,76 +2797,76 @@
         <v>111</v>
       </c>
       <c r="L13">
-        <v>2.14</v>
+        <v>1.53</v>
       </c>
       <c r="M13">
-        <v>3.33</v>
+        <v>3.9</v>
       </c>
       <c r="N13">
-        <v>2.84</v>
+        <v>4.75</v>
       </c>
       <c r="O13">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="R13">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S13">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="T13">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="U13">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="V13">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="W13">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X13">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z13">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA13">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AC13">
+        <v>1.91</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>1.4</v>
+      </c>
+      <c r="AF13">
+        <v>1.77</v>
+      </c>
+      <c r="AG13">
         <v>1.9</v>
       </c>
-      <c r="AD13">
-        <v>3.1</v>
-      </c>
-      <c r="AE13">
-        <v>1.38</v>
-      </c>
-      <c r="AF13">
-        <v>1.62</v>
-      </c>
-      <c r="AG13">
-        <v>2.1</v>
-      </c>
       <c r="AH13">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AI13">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AJ13" t="s">
         <v>112</v>
@@ -2875,46 +2875,46 @@
         <v>112</v>
       </c>
       <c r="AL13">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AM13">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AN13">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AR13">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AT13">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AU13">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AV13">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AW13">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="AX13">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AY13">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="BC13">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="BD13" s="3">
         <v>45798.58333333334</v>
@@ -3477,64 +3477,64 @@
         <v>111</v>
       </c>
       <c r="L17">
-        <v>2.65</v>
+        <v>3.09</v>
       </c>
       <c r="M17">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="N17">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="O17">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="P17">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R17">
         <v>1.5</v>
       </c>
       <c r="S17">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T17">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="U17">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="V17">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="X17">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="Y17">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z17">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA17">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AB17">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="AC17">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AD17">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AE17">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF17">
         <v>2</v>
@@ -3543,10 +3543,10 @@
         <v>1.75</v>
       </c>
       <c r="AH17">
-        <v>8.4</v>
+        <v>9.9</v>
       </c>
       <c r="AI17">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="s">
         <v>112</v>
@@ -3555,58 +3555,58 @@
         <v>112</v>
       </c>
       <c r="AL17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AM17">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AN17">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AO17">
         <v>-1</v>
       </c>
       <c r="AP17">
+        <v>1.5</v>
+      </c>
+      <c r="AQ17">
+        <v>1.81</v>
+      </c>
+      <c r="AR17">
+        <v>2.8</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>4</v>
+      </c>
+      <c r="AU17">
+        <v>2.4</v>
+      </c>
+      <c r="AV17">
+        <v>1.91</v>
+      </c>
+      <c r="AW17">
         <v>1.55</v>
       </c>
-      <c r="AQ17">
+      <c r="AX17">
+        <v>1.33</v>
+      </c>
+      <c r="AY17">
+        <v>1.2</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>2.25</v>
+      </c>
+      <c r="BC17">
         <v>1.93</v>
-      </c>
-      <c r="AR17">
-        <v>2.45</v>
-      </c>
-      <c r="AS17">
-        <v>3.2</v>
-      </c>
-      <c r="AT17">
-        <v>4.33</v>
-      </c>
-      <c r="AU17">
-        <v>2.3</v>
-      </c>
-      <c r="AV17">
-        <v>1.8</v>
-      </c>
-      <c r="AW17">
-        <v>1.5</v>
-      </c>
-      <c r="AX17">
-        <v>1.3</v>
-      </c>
-      <c r="AY17">
-        <v>1.18</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>2.09</v>
-      </c>
-      <c r="BC17">
-        <v>1.97</v>
       </c>
       <c r="BD17" s="3">
         <v>45798.8125</v>
@@ -3647,76 +3647,76 @@
         <v>111</v>
       </c>
       <c r="L18">
-        <v>3.09</v>
+        <v>2.65</v>
       </c>
       <c r="M18">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="N18">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="O18">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="P18">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="Q18">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="R18">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S18">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="T18">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="U18">
         <v>1.27</v>
       </c>
       <c r="V18">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="Y18">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z18">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AA18">
         <v>2.5</v>
       </c>
       <c r="AB18">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AC18">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AD18">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AE18">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AF18">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AG18">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AH18">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AI18">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AJ18" t="s">
         <v>112</v>
@@ -3725,46 +3725,46 @@
         <v>112</v>
       </c>
       <c r="AL18">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AM18">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AN18">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ18">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AR18">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="AS18">
         <v>3.2</v>
       </c>
       <c r="AT18">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AU18">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="AV18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AW18">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AX18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AY18">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="BC18">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="BD18" s="3">
         <v>45798.8125</v>
@@ -3835,16 +3835,16 @@
         <v>1.77</v>
       </c>
       <c r="R19">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S19">
         <v>2.55</v>
       </c>
       <c r="T19">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="U19">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V19">
         <v>8.5</v>
@@ -3856,13 +3856,13 @@
         <v>1.05</v>
       </c>
       <c r="Y19">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="Z19">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AA19">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="AB19">
         <v>2.05</v>
@@ -3871,10 +3871,10 @@
         <v>1.65</v>
       </c>
       <c r="AD19">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AE19">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF19">
         <v>2</v>
@@ -3895,43 +3895,43 @@
         <v>112</v>
       </c>
       <c r="AL19">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="AM19">
         <v>1.27</v>
       </c>
       <c r="AN19">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AR19">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AS19">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="AT19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AU19">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="AV19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AW19">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AX19">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AY19">
         <v>1.22</v>
